--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Dkk2</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Dkk2</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H2">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J2">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>0.5842342336749999</v>
+        <v>2.324108959255222</v>
       </c>
       <c r="R2">
-        <v>5.258108103075</v>
+        <v>20.916980633297</v>
       </c>
       <c r="S2">
-        <v>0.001724414632063623</v>
+        <v>0.006100128515717391</v>
       </c>
       <c r="T2">
-        <v>0.001724414632063623</v>
+        <v>0.006100128515717392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H3">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J3">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
-        <v>1.790556654277</v>
+        <v>7.613537400677444</v>
       </c>
       <c r="R3">
-        <v>16.115009888493</v>
+        <v>68.521836606097</v>
       </c>
       <c r="S3">
-        <v>0.005284972903336849</v>
+        <v>0.01998338176805468</v>
       </c>
       <c r="T3">
-        <v>0.005284972903336851</v>
+        <v>0.01998338176805468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H4">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J4">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>0.469696347911</v>
+        <v>3.715916694125222</v>
       </c>
       <c r="R4">
-        <v>4.227267131199</v>
+        <v>33.443250247127</v>
       </c>
       <c r="S4">
-        <v>0.001386346790857752</v>
+        <v>0.009753230070214763</v>
       </c>
       <c r="T4">
-        <v>0.001386346790857753</v>
+        <v>0.009753230070214763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.041493</v>
+        <v>0.1764303333333333</v>
       </c>
       <c r="H5">
-        <v>0.124479</v>
+        <v>0.529291</v>
       </c>
       <c r="I5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="J5">
-        <v>0.01107897912368202</v>
+        <v>0.04559680146739255</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>0.9090873151019998</v>
+        <v>3.718519276782334</v>
       </c>
       <c r="R5">
-        <v>8.181785835917999</v>
+        <v>33.466673491041</v>
       </c>
       <c r="S5">
-        <v>0.002683244797423795</v>
+        <v>0.009760061113405716</v>
       </c>
       <c r="T5">
-        <v>0.002683244797423797</v>
+        <v>0.009760061113405716</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.89553</v>
       </c>
       <c r="I6">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J6">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N6">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q6">
-        <v>51.13747395169445</v>
+        <v>47.84211121827889</v>
       </c>
       <c r="R6">
-        <v>460.2372655652501</v>
+        <v>430.57900096451</v>
       </c>
       <c r="S6">
-        <v>0.1509363937378045</v>
+        <v>0.1255720071696936</v>
       </c>
       <c r="T6">
-        <v>0.1509363937378045</v>
+        <v>0.1255720071696937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.89553</v>
       </c>
       <c r="I7">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J7">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>129.459667</v>
       </c>
       <c r="O7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q7">
         <v>156.7257428431678</v>
@@ -883,10 +883,10 @@
         <v>1410.53168558851</v>
       </c>
       <c r="S7">
-        <v>0.4625887163095281</v>
+        <v>0.4113607364479896</v>
       </c>
       <c r="T7">
-        <v>0.4625887163095282</v>
+        <v>0.4113607364479896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,10 +915,10 @@
         <v>10.89553</v>
       </c>
       <c r="I8">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J8">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N8">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q8">
-        <v>41.11208034732556</v>
+        <v>76.4926700403789</v>
       </c>
       <c r="R8">
-        <v>370.0087231259301</v>
+        <v>688.4340303634101</v>
       </c>
       <c r="S8">
-        <v>0.1213456329998985</v>
+        <v>0.2007716186878807</v>
       </c>
       <c r="T8">
-        <v>0.1213456329998986</v>
+        <v>0.2007716186878807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>10.89553</v>
       </c>
       <c r="I9">
-        <v>0.9697326409390435</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="J9">
-        <v>0.9697326409390437</v>
+        <v>0.9386165989824495</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N9">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O9">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P9">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q9">
-        <v>79.57155917314</v>
+        <v>76.54624457200335</v>
       </c>
       <c r="R9">
-        <v>716.1440325582601</v>
+        <v>688.9162011480302</v>
       </c>
       <c r="S9">
-        <v>0.2348618978918122</v>
+        <v>0.2009122366768855</v>
       </c>
       <c r="T9">
-        <v>0.2348618978918123</v>
+        <v>0.2009122366768855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H10">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I10">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J10">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N10">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O10">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P10">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q10">
-        <v>1.011871971502778</v>
+        <v>0.8046568239426667</v>
       </c>
       <c r="R10">
-        <v>9.106847743525</v>
+        <v>7.241911415484</v>
       </c>
       <c r="S10">
-        <v>0.002986622030788266</v>
+        <v>0.002111996521312933</v>
       </c>
       <c r="T10">
-        <v>0.002986622030788268</v>
+        <v>0.002111996521312933</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H11">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I11">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J11">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.459667</v>
       </c>
       <c r="O11">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P11">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q11">
-        <v>3.101177554170111</v>
+        <v>2.635971433009333</v>
       </c>
       <c r="R11">
-        <v>27.91059798753099</v>
+        <v>23.723742897084</v>
       </c>
       <c r="S11">
-        <v>0.009153376578773137</v>
+        <v>0.006918679281830896</v>
       </c>
       <c r="T11">
-        <v>0.00915337657877314</v>
+        <v>0.006918679281830896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H12">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I12">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J12">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N12">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O12">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P12">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q12">
-        <v>0.8134966117592222</v>
+        <v>1.286530785582667</v>
       </c>
       <c r="R12">
-        <v>7.321469505833</v>
+        <v>11.578777070244</v>
       </c>
       <c r="S12">
-        <v>0.002401101098831091</v>
+        <v>0.003376779346006253</v>
       </c>
       <c r="T12">
-        <v>0.002401101098831092</v>
+        <v>0.003376779346006253</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.07186433333333332</v>
+        <v>0.061084</v>
       </c>
       <c r="H13">
-        <v>0.215593</v>
+        <v>0.183252</v>
       </c>
       <c r="I13">
-        <v>0.01918837993727438</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="J13">
-        <v>0.01918837993727439</v>
+        <v>0.01578659955015789</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N13">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O13">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P13">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q13">
-        <v>1.574505430834</v>
+        <v>1.287431856028</v>
       </c>
       <c r="R13">
-        <v>14.170548877506</v>
+        <v>11.586886704252</v>
       </c>
       <c r="S13">
-        <v>0.004647280228881887</v>
+        <v>0.00337914440100781</v>
       </c>
       <c r="T13">
-        <v>0.004647280228881888</v>
+        <v>0.00337914440100781</v>
       </c>
     </row>
   </sheetData>
